--- a/dataanalysis/data/predictions/1200/07221140_1144.xlsx
+++ b/dataanalysis/data/predictions/1200/07221140_1144.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
@@ -440,12 +443,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -803,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,19 +888,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1.02</v>
@@ -921,7 +921,7 @@
         <v>42771.36</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -941,8 +941,23 @@
       <c r="P2">
         <v>-0.29</v>
       </c>
+      <c r="Q2">
+        <v>-3.26</v>
+      </c>
+      <c r="R2">
+        <v>5.03</v>
+      </c>
+      <c r="S2">
+        <v>1.62</v>
+      </c>
       <c r="V2" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -950,22 +965,25 @@
       <c r="Z2">
         <v>1.654434323310852</v>
       </c>
-      <c r="AA2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2.04</v>
@@ -983,7 +1001,7 @@
         <v>71559.89999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1003,8 +1021,23 @@
       <c r="P3">
         <v>-0.42</v>
       </c>
+      <c r="Q3">
+        <v>-0.77</v>
+      </c>
+      <c r="R3">
+        <v>25.56</v>
+      </c>
+      <c r="S3">
+        <v>8.81</v>
+      </c>
       <c r="V3" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1012,22 +1045,25 @@
       <c r="Z3">
         <v>9.163487434387207</v>
       </c>
-      <c r="AA3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1.05</v>
@@ -1045,7 +1081,7 @@
         <v>74764.86</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1065,8 +1101,23 @@
       <c r="P4">
         <v>0.1</v>
       </c>
+      <c r="Q4">
+        <v>-1.26</v>
+      </c>
+      <c r="R4">
+        <v>41.59</v>
+      </c>
+      <c r="S4">
+        <v>-2.12</v>
+      </c>
       <c r="V4" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1074,22 +1125,25 @@
       <c r="Z4">
         <v>5.391940593719482</v>
       </c>
-      <c r="AA4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-5.74</v>
@@ -1107,7 +1161,7 @@
         <v>86907.27</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1127,8 +1181,23 @@
       <c r="P5">
         <v>-0.51</v>
       </c>
+      <c r="Q5">
+        <v>-1.11</v>
+      </c>
+      <c r="R5">
+        <v>6.36</v>
+      </c>
+      <c r="S5">
+        <v>-0.63</v>
+      </c>
       <c r="V5" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1136,22 +1205,25 @@
       <c r="Z5">
         <v>3.812782287597656</v>
       </c>
-      <c r="AA5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>6.06</v>
@@ -1169,7 +1241,7 @@
         <v>50044.36</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1189,8 +1261,23 @@
       <c r="P6">
         <v>-0.31</v>
       </c>
+      <c r="Q6">
+        <v>-3.96</v>
+      </c>
+      <c r="R6">
+        <v>6.61</v>
+      </c>
+      <c r="S6">
+        <v>-0.6</v>
+      </c>
       <c r="V6" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1198,22 +1285,25 @@
       <c r="Z6">
         <v>1.829632878303528</v>
       </c>
-      <c r="AA6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>19.98</v>
@@ -1231,7 +1321,7 @@
         <v>106076.26</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1251,8 +1341,23 @@
       <c r="P7">
         <v>6.53</v>
       </c>
+      <c r="Q7">
+        <v>-11.78</v>
+      </c>
+      <c r="R7">
+        <v>12.49</v>
+      </c>
+      <c r="S7">
+        <v>-1.89</v>
+      </c>
       <c r="V7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1260,22 +1365,25 @@
       <c r="Z7">
         <v>11.97036457061768</v>
       </c>
-      <c r="AA7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300195</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1.44</v>
@@ -1293,7 +1401,7 @@
         <v>38549.67</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1313,8 +1421,23 @@
       <c r="P8">
         <v>-1.24</v>
       </c>
+      <c r="Q8">
+        <v>-3.86</v>
+      </c>
+      <c r="R8">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S8">
+        <v>-2.95</v>
+      </c>
       <c r="V8" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1322,22 +1445,25 @@
       <c r="Z8">
         <v>4.58791446685791</v>
       </c>
-      <c r="AA8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>2.98</v>
@@ -1355,7 +1481,7 @@
         <v>134299.1</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1375,8 +1501,23 @@
       <c r="P9">
         <v>0.18</v>
       </c>
+      <c r="Q9">
+        <v>-1.64</v>
+      </c>
+      <c r="R9">
+        <v>19.44</v>
+      </c>
+      <c r="S9">
+        <v>0.41</v>
+      </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1384,22 +1525,25 @@
       <c r="Z9">
         <v>1.058877229690552</v>
       </c>
-      <c r="AA9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300283</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.72</v>
@@ -1417,7 +1561,7 @@
         <v>40584.1</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1437,8 +1581,23 @@
       <c r="P10">
         <v>-0.44</v>
       </c>
+      <c r="Q10">
+        <v>-4.45</v>
+      </c>
+      <c r="R10">
+        <v>7.8</v>
+      </c>
+      <c r="S10">
+        <v>-2.26</v>
+      </c>
       <c r="V10" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1446,22 +1605,25 @@
       <c r="Z10">
         <v>0.8998778462409973</v>
       </c>
-      <c r="AA10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300414</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>6.81</v>
@@ -1479,7 +1641,7 @@
         <v>69946.38</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1499,8 +1661,23 @@
       <c r="P11">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Q11">
+        <v>-1.35</v>
+      </c>
+      <c r="R11">
+        <v>14.77</v>
+      </c>
+      <c r="S11">
+        <v>1.3</v>
+      </c>
       <c r="V11" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1508,22 +1685,25 @@
       <c r="Z11">
         <v>6.013211727142334</v>
       </c>
-      <c r="AA11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300436</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1541,7 +1721,7 @@
         <v>79299.69</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>14</v>
@@ -1561,8 +1741,23 @@
       <c r="P12">
         <v>-0.04</v>
       </c>
+      <c r="Q12">
+        <v>4.72</v>
+      </c>
+      <c r="R12">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.44</v>
+      </c>
       <c r="V12" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1570,22 +1765,25 @@
       <c r="Z12">
         <v>1.529290080070496</v>
       </c>
-      <c r="AA12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300469</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0.96</v>
@@ -1603,7 +1801,7 @@
         <v>37056.77</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1623,8 +1821,23 @@
       <c r="P13">
         <v>-0.04</v>
       </c>
+      <c r="Q13">
+        <v>-0.18</v>
+      </c>
+      <c r="R13">
+        <v>45.65</v>
+      </c>
+      <c r="S13">
+        <v>-1.15</v>
+      </c>
       <c r="V13" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1632,22 +1845,25 @@
       <c r="Z13">
         <v>4.165601253509521</v>
       </c>
-      <c r="AA13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300485</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>10.81</v>
@@ -1665,7 +1881,7 @@
         <v>96704.38</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1685,8 +1901,23 @@
       <c r="P14">
         <v>1.61</v>
       </c>
+      <c r="Q14">
+        <v>-4.87</v>
+      </c>
+      <c r="R14">
+        <v>16.76</v>
+      </c>
+      <c r="S14">
+        <v>-1.47</v>
+      </c>
       <c r="V14" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1694,22 +1925,25 @@
       <c r="Z14">
         <v>2.383761167526245</v>
       </c>
-      <c r="AA14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300502</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.49</v>
@@ -1727,7 +1961,7 @@
         <v>725731.89</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>20</v>
@@ -1747,8 +1981,23 @@
       <c r="P15">
         <v>-0.16</v>
       </c>
+      <c r="Q15">
+        <v>-1.42</v>
+      </c>
+      <c r="R15">
+        <v>175.55</v>
+      </c>
+      <c r="S15">
+        <v>-1.04</v>
+      </c>
       <c r="V15" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1756,22 +2005,25 @@
       <c r="Z15">
         <v>2.576607942581177</v>
       </c>
-      <c r="AA15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300522</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1.85</v>
@@ -1789,7 +2041,7 @@
         <v>50212.12</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1809,8 +2061,23 @@
       <c r="P16">
         <v>0.25</v>
       </c>
+      <c r="Q16">
+        <v>-5.12</v>
+      </c>
+      <c r="R16">
+        <v>16.28</v>
+      </c>
+      <c r="S16">
+        <v>-4.52</v>
+      </c>
       <c r="V16" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1818,22 +2085,25 @@
       <c r="Z16">
         <v>3.808804750442505</v>
       </c>
-      <c r="AA16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300527</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>2.44</v>
@@ -1851,7 +2121,7 @@
         <v>62666.08</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -1871,8 +2141,23 @@
       <c r="P17">
         <v>0.18</v>
       </c>
+      <c r="Q17">
+        <v>-7.12</v>
+      </c>
+      <c r="R17">
+        <v>12.06</v>
+      </c>
+      <c r="S17">
+        <v>6.35</v>
+      </c>
       <c r="V17" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1880,22 +2165,25 @@
       <c r="Z17">
         <v>4.424343585968018</v>
       </c>
-      <c r="AA17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300533</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-2.86</v>
@@ -1913,7 +2201,7 @@
         <v>42179.83</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18">
         <v>20</v>
@@ -1933,8 +2221,23 @@
       <c r="P18">
         <v>-1.35</v>
       </c>
+      <c r="Q18">
+        <v>0.38</v>
+      </c>
+      <c r="R18">
+        <v>37.3</v>
+      </c>
+      <c r="S18">
+        <v>2.7</v>
+      </c>
       <c r="V18" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1942,22 +2245,25 @@
       <c r="Z18">
         <v>4.599892616271973</v>
       </c>
-      <c r="AA18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300537</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-0.9399999999999999</v>
@@ -1975,7 +2281,7 @@
         <v>20157.31</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -1995,8 +2301,23 @@
       <c r="P19">
         <v>-0.1</v>
       </c>
+      <c r="Q19">
+        <v>-2.59</v>
+      </c>
+      <c r="R19">
+        <v>25.19</v>
+      </c>
+      <c r="S19">
+        <v>-0.08</v>
+      </c>
       <c r="V19" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2004,22 +2325,25 @@
       <c r="Z19">
         <v>4.761850833892822</v>
       </c>
-      <c r="AA19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300548</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>2.17</v>
@@ -2037,7 +2361,7 @@
         <v>214059.37</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2057,8 +2381,23 @@
       <c r="P20">
         <v>0.02</v>
       </c>
+      <c r="Q20">
+        <v>2.84</v>
+      </c>
+      <c r="R20">
+        <v>90.11</v>
+      </c>
+      <c r="S20">
+        <v>3.3</v>
+      </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2066,22 +2405,25 @@
       <c r="Z20">
         <v>4.317379951477051</v>
       </c>
-      <c r="AA20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300581</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>2.86</v>
@@ -2099,7 +2441,7 @@
         <v>142163.89</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2119,8 +2461,23 @@
       <c r="P21">
         <v>0.4</v>
       </c>
+      <c r="Q21">
+        <v>-4.42</v>
+      </c>
+      <c r="R21">
+        <v>21.05</v>
+      </c>
+      <c r="S21">
+        <v>-2.55</v>
+      </c>
       <c r="V21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2128,22 +2485,25 @@
       <c r="Z21">
         <v>3.900959491729736</v>
       </c>
-      <c r="AA21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300591</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>6.79</v>
@@ -2161,7 +2521,7 @@
         <v>128233.48</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2181,8 +2541,23 @@
       <c r="P22">
         <v>0.35</v>
       </c>
+      <c r="Q22">
+        <v>-10.62</v>
+      </c>
+      <c r="R22">
+        <v>12.79</v>
+      </c>
+      <c r="S22">
+        <v>-3.18</v>
+      </c>
       <c r="V22" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2190,22 +2565,25 @@
       <c r="Z22">
         <v>11.77488422393799</v>
       </c>
-      <c r="AA22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300600</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.14</v>
@@ -2223,7 +2601,7 @@
         <v>34595.56</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23">
         <v>18</v>
@@ -2243,8 +2621,23 @@
       <c r="P23">
         <v>-0.14</v>
       </c>
+      <c r="Q23">
+        <v>-6.63</v>
+      </c>
+      <c r="R23">
+        <v>15.68</v>
+      </c>
+      <c r="S23">
+        <v>-2.06</v>
+      </c>
       <c r="V23" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2252,22 +2645,25 @@
       <c r="Z23">
         <v>0.5777064561843872</v>
       </c>
-      <c r="AA23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300617</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>13.1</v>
@@ -2285,7 +2681,7 @@
         <v>100402.95</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2305,8 +2701,23 @@
       <c r="P24">
         <v>-1.63</v>
       </c>
+      <c r="Q24">
+        <v>-12.59</v>
+      </c>
+      <c r="R24">
+        <v>44.74</v>
+      </c>
+      <c r="S24">
+        <v>7.7</v>
+      </c>
       <c r="V24" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2314,22 +2725,25 @@
       <c r="Z24">
         <v>8.089410781860352</v>
       </c>
-      <c r="AA24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300631</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-4.77</v>
@@ -2347,7 +2761,7 @@
         <v>56049.38</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2367,8 +2781,23 @@
       <c r="P25">
         <v>-0.95</v>
       </c>
+      <c r="Q25">
+        <v>6.65</v>
+      </c>
+      <c r="R25">
+        <v>35</v>
+      </c>
+      <c r="S25">
+        <v>6.32</v>
+      </c>
       <c r="V25" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2376,22 +2805,25 @@
       <c r="Z25">
         <v>1.099775552749634</v>
       </c>
-      <c r="AA25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300644</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-5.96</v>
@@ -2409,7 +2841,7 @@
         <v>52777.96</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2429,8 +2861,23 @@
       <c r="P26">
         <v>-0.61</v>
       </c>
+      <c r="Q26">
+        <v>-4.69</v>
+      </c>
+      <c r="R26">
+        <v>33.34</v>
+      </c>
+      <c r="S26">
+        <v>-3.08</v>
+      </c>
       <c r="V26" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2438,22 +2885,25 @@
       <c r="Z26">
         <v>2.450425148010254</v>
       </c>
-      <c r="AA26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300665</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>8.77</v>
@@ -2471,7 +2921,7 @@
         <v>57606.94</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2491,8 +2941,23 @@
       <c r="P27">
         <v>-0.73</v>
       </c>
+      <c r="Q27">
+        <v>-11.8</v>
+      </c>
+      <c r="R27">
+        <v>11.07</v>
+      </c>
+      <c r="S27">
+        <v>-1.95</v>
+      </c>
       <c r="V27" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2500,22 +2965,25 @@
       <c r="Z27">
         <v>-0.9473350644111633</v>
       </c>
-      <c r="AA27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300683</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>6.04</v>
@@ -2533,7 +3001,7 @@
         <v>67843.46000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2553,8 +3021,23 @@
       <c r="P28">
         <v>0.64</v>
       </c>
+      <c r="Q28">
+        <v>7.18</v>
+      </c>
+      <c r="R28">
+        <v>48.9</v>
+      </c>
+      <c r="S28">
+        <v>21.61</v>
+      </c>
       <c r="V28" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -2562,22 +3045,25 @@
       <c r="Z28">
         <v>3.977176904678345</v>
       </c>
-      <c r="AA28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300722</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>7.19</v>
@@ -2595,7 +3081,7 @@
         <v>191528.06</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2615,8 +3101,23 @@
       <c r="P29">
         <v>-2.36</v>
       </c>
+      <c r="Q29">
+        <v>-8.84</v>
+      </c>
+      <c r="R29">
+        <v>42.8</v>
+      </c>
+      <c r="S29">
+        <v>-2.73</v>
+      </c>
       <c r="V29" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2624,22 +3125,25 @@
       <c r="Z29">
         <v>4.685088634490967</v>
       </c>
-      <c r="AA29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300748</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>0.41</v>
@@ -2657,7 +3161,7 @@
         <v>118234.25</v>
       </c>
       <c r="J30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -2677,8 +3181,23 @@
       <c r="P30">
         <v>-0.11</v>
       </c>
+      <c r="Q30">
+        <v>-0.64</v>
+      </c>
+      <c r="R30">
+        <v>27.08</v>
+      </c>
+      <c r="S30">
+        <v>0.89</v>
+      </c>
       <c r="V30" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2686,22 +3205,25 @@
       <c r="Z30">
         <v>4.37679386138916</v>
       </c>
-      <c r="AA30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300803</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-0.02</v>
@@ -2719,7 +3241,7 @@
         <v>171858.11</v>
       </c>
       <c r="J31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K31">
         <v>18</v>
@@ -2739,8 +3261,23 @@
       <c r="P31">
         <v>-0.44</v>
       </c>
+      <c r="Q31">
+        <v>2.26</v>
+      </c>
+      <c r="R31">
+        <v>94</v>
+      </c>
+      <c r="S31">
+        <v>11.92</v>
+      </c>
       <c r="V31" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2748,22 +3285,25 @@
       <c r="Z31">
         <v>2.841169357299805</v>
       </c>
-      <c r="AA31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300830</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-2.22</v>
@@ -2781,7 +3321,7 @@
         <v>34027.51</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2801,8 +3341,23 @@
       <c r="P32">
         <v>-0.89</v>
       </c>
+      <c r="Q32">
+        <v>-1.53</v>
+      </c>
+      <c r="R32">
+        <v>10.66</v>
+      </c>
+      <c r="S32">
+        <v>0.85</v>
+      </c>
       <c r="V32" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2810,22 +3365,25 @@
       <c r="Z32">
         <v>2.029134511947632</v>
       </c>
-      <c r="AA32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300835</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>2.47</v>
@@ -2843,7 +3401,7 @@
         <v>39898.95</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2863,8 +3421,23 @@
       <c r="P33">
         <v>0.33</v>
       </c>
+      <c r="Q33">
+        <v>6.6</v>
+      </c>
+      <c r="R33">
+        <v>53.98</v>
+      </c>
+      <c r="S33">
+        <v>10.32</v>
+      </c>
       <c r="V33" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2872,22 +3445,25 @@
       <c r="Z33">
         <v>3.598992347717285</v>
       </c>
-      <c r="AA33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300865</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>20.01</v>
@@ -2905,7 +3481,7 @@
         <v>39541.34</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2925,8 +3501,23 @@
       <c r="P34">
         <v>-2.77</v>
       </c>
+      <c r="Q34">
+        <v>-1.19</v>
+      </c>
+      <c r="R34">
+        <v>52.62</v>
+      </c>
+      <c r="S34">
+        <v>20</v>
+      </c>
       <c r="V34" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2934,22 +3525,25 @@
       <c r="Z34">
         <v>12.85014247894287</v>
       </c>
-      <c r="AA34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300872</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>3.29</v>
@@ -2967,7 +3561,7 @@
         <v>141201.79</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K35">
         <v>27</v>
@@ -2987,8 +3581,23 @@
       <c r="P35">
         <v>0.63</v>
       </c>
+      <c r="Q35">
+        <v>-8.27</v>
+      </c>
+      <c r="R35">
+        <v>24.86</v>
+      </c>
+      <c r="S35">
+        <v>-0.92</v>
+      </c>
       <c r="V35" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2996,22 +3605,25 @@
       <c r="Z35">
         <v>5.057008266448975</v>
       </c>
-      <c r="AA35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300878</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-2.05</v>
@@ -3029,7 +3641,7 @@
         <v>22102.81</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3049,8 +3661,23 @@
       <c r="P36">
         <v>0.3</v>
       </c>
+      <c r="Q36">
+        <v>-1.68</v>
+      </c>
+      <c r="R36">
+        <v>22.23</v>
+      </c>
+      <c r="S36">
+        <v>-0.89</v>
+      </c>
       <c r="V36" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3058,22 +3685,25 @@
       <c r="Z36">
         <v>6.995119094848633</v>
       </c>
-      <c r="AA36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300922</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.6899999999999999</v>
@@ -3091,7 +3721,7 @@
         <v>47618.82</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3111,8 +3741,23 @@
       <c r="P37">
         <v>-0.5</v>
       </c>
+      <c r="Q37">
+        <v>-4.31</v>
+      </c>
+      <c r="R37">
+        <v>30.13</v>
+      </c>
+      <c r="S37">
+        <v>-1.37</v>
+      </c>
       <c r="V37" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3120,22 +3765,25 @@
       <c r="Z37">
         <v>6.584390640258789</v>
       </c>
-      <c r="AA37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300950</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-6.14</v>
@@ -3153,7 +3801,7 @@
         <v>40039.12</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3173,8 +3821,23 @@
       <c r="P38">
         <v>-1.75</v>
       </c>
+      <c r="Q38">
+        <v>0.17</v>
+      </c>
+      <c r="R38">
+        <v>30.5</v>
+      </c>
+      <c r="S38">
+        <v>2.87</v>
+      </c>
       <c r="V38" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3182,22 +3845,25 @@
       <c r="Z38">
         <v>1.10112452507019</v>
       </c>
-      <c r="AA38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301007</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-0.36</v>
@@ -3215,7 +3881,7 @@
         <v>25317.55</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -3235,8 +3901,23 @@
       <c r="P39">
         <v>-0.05</v>
       </c>
+      <c r="Q39">
+        <v>-0.67</v>
+      </c>
+      <c r="R39">
+        <v>33.08</v>
+      </c>
+      <c r="S39">
+        <v>-0.9</v>
+      </c>
       <c r="V39" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3244,22 +3925,25 @@
       <c r="Z39">
         <v>3.308383941650391</v>
       </c>
-      <c r="AA39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301012</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-2.69</v>
@@ -3277,7 +3961,7 @@
         <v>31828.66</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -3297,8 +3981,23 @@
       <c r="P40">
         <v>0.18</v>
       </c>
+      <c r="Q40">
+        <v>-3.7</v>
+      </c>
+      <c r="R40">
+        <v>22.81</v>
+      </c>
+      <c r="S40">
+        <v>-2.85</v>
+      </c>
       <c r="V40" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3306,22 +4005,25 @@
       <c r="Z40">
         <v>1.658822894096375</v>
       </c>
-      <c r="AA40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301038</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>19.98</v>
@@ -3339,7 +4041,7 @@
         <v>73513.87</v>
       </c>
       <c r="J41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3359,8 +4061,23 @@
       <c r="P41">
         <v>-1.95</v>
       </c>
+      <c r="Q41">
+        <v>20.02</v>
+      </c>
+      <c r="R41">
+        <v>27.82</v>
+      </c>
+      <c r="S41">
+        <v>20.02</v>
+      </c>
       <c r="V41" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3368,22 +4085,25 @@
       <c r="Z41">
         <v>8.37498664855957</v>
       </c>
-      <c r="AA41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301120</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-4.38</v>
@@ -3401,7 +4121,7 @@
         <v>30385.18</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3421,8 +4141,23 @@
       <c r="P42">
         <v>-0.63</v>
       </c>
+      <c r="Q42">
+        <v>-4.68</v>
+      </c>
+      <c r="R42">
+        <v>12.82</v>
+      </c>
+      <c r="S42">
+        <v>2.97</v>
+      </c>
       <c r="V42" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3430,22 +4165,25 @@
       <c r="Z42">
         <v>4.531158924102783</v>
       </c>
-      <c r="AA42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301132</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-2.44</v>
@@ -3463,7 +4201,7 @@
         <v>31410.48</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -3483,8 +4221,23 @@
       <c r="P43">
         <v>-1.35</v>
       </c>
+      <c r="Q43">
+        <v>-1.92</v>
+      </c>
+      <c r="R43">
+        <v>36.93</v>
+      </c>
+      <c r="S43">
+        <v>-0.59</v>
+      </c>
       <c r="V43" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3492,22 +4245,25 @@
       <c r="Z43">
         <v>4.061470508575439</v>
       </c>
-      <c r="AA43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301141</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-2.97</v>
@@ -3525,7 +4281,7 @@
         <v>52021.3</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>18</v>
@@ -3545,8 +4301,23 @@
       <c r="P44">
         <v>-1.86</v>
       </c>
+      <c r="Q44">
+        <v>0.82</v>
+      </c>
+      <c r="R44">
+        <v>69.56</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
       <c r="V44" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3554,22 +4325,25 @@
       <c r="Z44">
         <v>7.433148860931396</v>
       </c>
-      <c r="AA44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301161</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>20.01</v>
@@ -3587,7 +4361,7 @@
         <v>31971.07</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3607,8 +4381,23 @@
       <c r="P45">
         <v>3.76</v>
       </c>
+      <c r="Q45">
+        <v>-16.05</v>
+      </c>
+      <c r="R45">
+        <v>38.48</v>
+      </c>
+      <c r="S45">
+        <v>8.359999999999999</v>
+      </c>
       <c r="V45" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3616,22 +4405,25 @@
       <c r="Z45">
         <v>12.17944622039795</v>
       </c>
-      <c r="AA45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301165</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>0.24</v>
@@ -3649,7 +4441,7 @@
         <v>45212.15</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3669,8 +4461,23 @@
       <c r="P46">
         <v>0.05</v>
       </c>
+      <c r="Q46">
+        <v>2.22</v>
+      </c>
+      <c r="R46">
+        <v>63.25</v>
+      </c>
+      <c r="S46">
+        <v>1.22</v>
+      </c>
       <c r="V46" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3678,22 +4485,25 @@
       <c r="Z46">
         <v>1.525978684425354</v>
       </c>
-      <c r="AA46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301183</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-5.49</v>
@@ -3711,7 +4521,7 @@
         <v>53057.77</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -3731,8 +4541,23 @@
       <c r="P47">
         <v>-1.11</v>
       </c>
+      <c r="Q47">
+        <v>-1.96</v>
+      </c>
+      <c r="R47">
+        <v>69.45</v>
+      </c>
+      <c r="S47">
+        <v>-1.35</v>
+      </c>
       <c r="V47" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3740,22 +4565,25 @@
       <c r="Z47">
         <v>3.563935995101929</v>
       </c>
-      <c r="AA47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301201</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>8.890000000000001</v>
@@ -3773,7 +4601,7 @@
         <v>57892.23</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3793,8 +4621,23 @@
       <c r="P48">
         <v>-0.83</v>
       </c>
+      <c r="Q48">
+        <v>-13.12</v>
+      </c>
+      <c r="R48">
+        <v>30.46</v>
+      </c>
+      <c r="S48">
+        <v>-4.36</v>
+      </c>
       <c r="V48" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3802,22 +4645,25 @@
       <c r="Z48">
         <v>0.7682272791862488</v>
       </c>
-      <c r="AA48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301217</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-1.33</v>
@@ -3835,7 +4681,7 @@
         <v>112939.38</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -3855,8 +4701,23 @@
       <c r="P49">
         <v>0.13</v>
       </c>
+      <c r="Q49">
+        <v>-2.45</v>
+      </c>
+      <c r="R49">
+        <v>20.16</v>
+      </c>
+      <c r="S49">
+        <v>-3.31</v>
+      </c>
       <c r="V49" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3864,22 +4725,25 @@
       <c r="Z49">
         <v>5.239423751831055</v>
       </c>
-      <c r="AA49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301265</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-2.33</v>
@@ -3897,7 +4761,7 @@
         <v>18505.17</v>
       </c>
       <c r="J50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -3917,8 +4781,23 @@
       <c r="P50">
         <v>0.19</v>
       </c>
+      <c r="Q50">
+        <v>-3.92</v>
+      </c>
+      <c r="R50">
+        <v>12.35</v>
+      </c>
+      <c r="S50">
+        <v>-1.59</v>
+      </c>
       <c r="V50" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3926,22 +4805,25 @@
       <c r="Z50">
         <v>7.898076057434082</v>
       </c>
-      <c r="AA50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301357</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>10.8</v>
@@ -3959,7 +4841,7 @@
         <v>84715.67</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -3979,8 +4861,23 @@
       <c r="P51">
         <v>0.71</v>
       </c>
+      <c r="Q51">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="R51">
+        <v>84.58</v>
+      </c>
+      <c r="S51">
+        <v>-8.06</v>
+      </c>
       <c r="V51" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3988,22 +4885,25 @@
       <c r="Z51">
         <v>3.527190446853638</v>
       </c>
-      <c r="AA51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301377</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>2.2</v>
@@ -4021,7 +4921,7 @@
         <v>33859.21</v>
       </c>
       <c r="J52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -4041,8 +4941,23 @@
       <c r="P52">
         <v>0.68</v>
       </c>
+      <c r="Q52">
+        <v>4.98</v>
+      </c>
+      <c r="R52">
+        <v>48.5</v>
+      </c>
+      <c r="S52">
+        <v>5.46</v>
+      </c>
       <c r="V52" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4050,22 +4965,25 @@
       <c r="Z52">
         <v>2.936445474624634</v>
       </c>
-      <c r="AA52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301388</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-2.78</v>
@@ -4083,7 +5001,7 @@
         <v>20715.53</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -4103,8 +5021,23 @@
       <c r="P53">
         <v>-1.24</v>
       </c>
+      <c r="Q53">
+        <v>-7.69</v>
+      </c>
+      <c r="R53">
+        <v>37.11</v>
+      </c>
+      <c r="S53">
+        <v>-5.11</v>
+      </c>
       <c r="V53" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4112,22 +5045,25 @@
       <c r="Z53">
         <v>4.520544052124023</v>
       </c>
-      <c r="AA53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301389</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-2.37</v>
@@ -4145,7 +5081,7 @@
         <v>47610.07</v>
       </c>
       <c r="J54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K54">
         <v>11</v>
@@ -4165,8 +5101,23 @@
       <c r="P54">
         <v>0.11</v>
       </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>32.22</v>
+      </c>
+      <c r="S54">
+        <v>-2.33</v>
+      </c>
       <c r="V54" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4174,22 +5125,25 @@
       <c r="Z54">
         <v>5.581537246704102</v>
       </c>
-      <c r="AA54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301421</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>1.64</v>
@@ -4207,7 +5161,7 @@
         <v>40084.36</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K55">
         <v>22</v>
@@ -4227,8 +5181,23 @@
       <c r="P55">
         <v>0.78</v>
       </c>
+      <c r="Q55">
+        <v>1.6</v>
+      </c>
+      <c r="R55">
+        <v>77.09</v>
+      </c>
+      <c r="S55">
+        <v>1.26</v>
+      </c>
       <c r="V55" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4236,22 +5205,25 @@
       <c r="Z55">
         <v>1.495984554290771</v>
       </c>
-      <c r="AA55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301511</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-3.23</v>
@@ -4269,7 +5241,7 @@
         <v>77641.23</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>21</v>
@@ -4289,8 +5261,23 @@
       <c r="P56">
         <v>0.15</v>
       </c>
+      <c r="Q56">
+        <v>-3.45</v>
+      </c>
+      <c r="R56">
+        <v>27.4</v>
+      </c>
+      <c r="S56">
+        <v>-1.69</v>
+      </c>
       <c r="V56" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4298,22 +5285,25 @@
       <c r="Z56">
         <v>1.274675488471985</v>
       </c>
-      <c r="AA56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301526</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-2.18</v>
@@ -4331,7 +5321,7 @@
         <v>48096.32</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K57">
         <v>11</v>
@@ -4351,8 +5341,23 @@
       <c r="P57">
         <v>-0.61</v>
       </c>
+      <c r="Q57">
+        <v>-2.24</v>
+      </c>
+      <c r="R57">
+        <v>4.94</v>
+      </c>
+      <c r="S57">
+        <v>0.2</v>
+      </c>
       <c r="V57" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4360,22 +5365,25 @@
       <c r="Z57">
         <v>2.487602233886719</v>
       </c>
-      <c r="AA57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301626</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>1.63</v>
@@ -4393,7 +5401,7 @@
         <v>28541.63</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4413,8 +5421,23 @@
       <c r="P58">
         <v>0.45</v>
       </c>
+      <c r="Q58">
+        <v>5.72</v>
+      </c>
+      <c r="R58">
+        <v>140.33</v>
+      </c>
+      <c r="S58">
+        <v>7.95</v>
+      </c>
       <c r="V58" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4422,22 +5445,25 @@
       <c r="Z58">
         <v>4.748408317565918</v>
       </c>
-      <c r="AA58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688062</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-2.95</v>
@@ -4455,7 +5481,7 @@
         <v>61046.52</v>
       </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K59">
         <v>14</v>
@@ -4475,8 +5501,23 @@
       <c r="P59">
         <v>0</v>
       </c>
+      <c r="Q59">
+        <v>0.03</v>
+      </c>
+      <c r="R59">
+        <v>34.01</v>
+      </c>
+      <c r="S59">
+        <v>-2.38</v>
+      </c>
       <c r="V59" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4484,22 +5525,25 @@
       <c r="Z59">
         <v>3.345458030700684</v>
       </c>
-      <c r="AA59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688117</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-0.42</v>
@@ -4517,7 +5561,7 @@
         <v>27751.08</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -4537,8 +5581,23 @@
       <c r="P60">
         <v>-0.29</v>
       </c>
+      <c r="Q60">
+        <v>-1.95</v>
+      </c>
+      <c r="R60">
+        <v>41.79</v>
+      </c>
+      <c r="S60">
+        <v>-1.25</v>
+      </c>
       <c r="V60" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4546,22 +5605,25 @@
       <c r="Z60">
         <v>3.897257089614868</v>
       </c>
-      <c r="AA60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>0.93</v>
@@ -4579,7 +5641,7 @@
         <v>51437.04</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -4599,8 +5661,23 @@
       <c r="P61">
         <v>0.55</v>
       </c>
+      <c r="Q61">
+        <v>8.83</v>
+      </c>
+      <c r="R61">
+        <v>68.5</v>
+      </c>
+      <c r="S61">
+        <v>15.36</v>
+      </c>
       <c r="V61" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4608,22 +5685,25 @@
       <c r="Z61">
         <v>0.9468226432800293</v>
       </c>
-      <c r="AA61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688221</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>7.21</v>
@@ -4641,7 +5721,7 @@
         <v>58138.75</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K62">
         <v>12</v>
@@ -4661,8 +5741,23 @@
       <c r="P62">
         <v>0.08</v>
       </c>
+      <c r="Q62">
+        <v>-4.74</v>
+      </c>
+      <c r="R62">
+        <v>23.92</v>
+      </c>
+      <c r="S62">
+        <v>0.5</v>
+      </c>
       <c r="V62" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4670,22 +5765,25 @@
       <c r="Z62">
         <v>2.787958860397339</v>
       </c>
-      <c r="AA62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688222</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>4.23</v>
@@ -4703,7 +5801,7 @@
         <v>98309.37</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -4723,8 +5821,23 @@
       <c r="P63">
         <v>-0.34</v>
       </c>
+      <c r="Q63">
+        <v>-2.8</v>
+      </c>
+      <c r="R63">
+        <v>25.35</v>
+      </c>
+      <c r="S63">
+        <v>2.8</v>
+      </c>
       <c r="V63" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4732,22 +5845,25 @@
       <c r="Z63">
         <v>2.054906845092773</v>
       </c>
-      <c r="AA63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688313</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>5.12</v>
@@ -4765,7 +5881,7 @@
         <v>180949.86</v>
       </c>
       <c r="J64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K64">
         <v>25</v>
@@ -4785,8 +5901,23 @@
       <c r="P64">
         <v>-0.02</v>
       </c>
+      <c r="Q64">
+        <v>4.42</v>
+      </c>
+      <c r="R64">
+        <v>59.16</v>
+      </c>
+      <c r="S64">
+        <v>6.29</v>
+      </c>
       <c r="V64" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4794,22 +5925,25 @@
       <c r="Z64">
         <v>1.679968237876892</v>
       </c>
-      <c r="AA64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688321</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>3.02</v>
@@ -4827,7 +5961,7 @@
         <v>68752.61</v>
       </c>
       <c r="J65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K65">
         <v>16</v>
@@ -4847,8 +5981,23 @@
       <c r="P65">
         <v>0.24</v>
       </c>
+      <c r="Q65">
+        <v>-3.95</v>
+      </c>
+      <c r="R65">
+        <v>36.6</v>
+      </c>
+      <c r="S65">
+        <v>-0.71</v>
+      </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4856,22 +6005,25 @@
       <c r="Z65">
         <v>1.006518125534058</v>
       </c>
-      <c r="AA65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688360</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>-0.17</v>
@@ -4889,7 +6041,7 @@
         <v>27792.36</v>
       </c>
       <c r="J66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4909,8 +6061,23 @@
       <c r="P66">
         <v>0.15</v>
       </c>
+      <c r="Q66">
+        <v>-4.34</v>
+      </c>
+      <c r="R66">
+        <v>23.5</v>
+      </c>
+      <c r="S66">
+        <v>-2.41</v>
+      </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4918,22 +6085,25 @@
       <c r="Z66">
         <v>6.503317832946777</v>
       </c>
-      <c r="AA66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688499</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>7.51</v>
@@ -4951,7 +6121,7 @@
         <v>77625.91</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K67">
         <v>26</v>
@@ -4971,8 +6141,23 @@
       <c r="P67">
         <v>0.1</v>
       </c>
+      <c r="Q67">
+        <v>-1.11</v>
+      </c>
+      <c r="R67">
+        <v>54.5</v>
+      </c>
+      <c r="S67">
+        <v>2.58</v>
+      </c>
       <c r="V67" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -4980,22 +6165,25 @@
       <c r="Z67">
         <v>5.807131290435791</v>
       </c>
-      <c r="AA67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688500</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>5.83</v>
@@ -5013,7 +6201,7 @@
         <v>37801.47</v>
       </c>
       <c r="J68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -5033,8 +6221,23 @@
       <c r="P68">
         <v>0.36</v>
       </c>
+      <c r="Q68">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="R68">
+        <v>68.08</v>
+      </c>
+      <c r="S68">
+        <v>11.68</v>
+      </c>
       <c r="V68" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5042,22 +6245,25 @@
       <c r="Z68">
         <v>2.881235837936401</v>
       </c>
-      <c r="AA68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688543</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>0.61</v>
@@ -5075,7 +6281,7 @@
         <v>36821.21</v>
       </c>
       <c r="J69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -5095,8 +6301,23 @@
       <c r="P69">
         <v>0.15</v>
       </c>
+      <c r="Q69">
+        <v>-2.87</v>
+      </c>
+      <c r="R69">
+        <v>53.81</v>
+      </c>
+      <c r="S69">
+        <v>-1.77</v>
+      </c>
       <c r="V69" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5104,22 +6325,25 @@
       <c r="Z69">
         <v>3.239297866821289</v>
       </c>
-      <c r="AA69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688553</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-2.03</v>
@@ -5137,7 +6361,7 @@
         <v>32335.29</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -5157,8 +6381,23 @@
       <c r="P70">
         <v>0.19</v>
       </c>
+      <c r="Q70">
+        <v>-1.24</v>
+      </c>
+      <c r="R70">
+        <v>22.15</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
       <c r="V70" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -5166,22 +6405,25 @@
       <c r="Z70">
         <v>7.375174522399902</v>
       </c>
-      <c r="AA70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688668</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>1.64</v>
@@ -5199,7 +6441,7 @@
         <v>63533.71</v>
       </c>
       <c r="J71" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -5219,8 +6461,23 @@
       <c r="P71">
         <v>0.42</v>
       </c>
+      <c r="Q71">
+        <v>-0.87</v>
+      </c>
+      <c r="R71">
+        <v>79.2</v>
+      </c>
+      <c r="S71">
+        <v>-0.09</v>
+      </c>
       <c r="V71" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5228,22 +6485,25 @@
       <c r="Z71">
         <v>6.55378246307373</v>
       </c>
-      <c r="AA71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688799</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>-1.19</v>
@@ -5261,7 +6521,7 @@
         <v>30279.69</v>
       </c>
       <c r="J72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -5281,8 +6541,23 @@
       <c r="P72">
         <v>0.02</v>
       </c>
+      <c r="Q72">
+        <v>-3.66</v>
+      </c>
+      <c r="R72">
+        <v>59.49</v>
+      </c>
+      <c r="S72">
+        <v>-1.62</v>
+      </c>
       <c r="V72" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -5290,8 +6565,11 @@
       <c r="Z72">
         <v>7.795239925384521</v>
       </c>
-      <c r="AA72" t="s">
-        <v>142</v>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
